--- a/Client/Luban/DataTables/Datas/__enums__.xlsx
+++ b/Client/Luban/DataTables/Datas/__enums__.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>EStoryType</t>
+  </si>
+  <si>
+    <t>Talk</t>
+  </si>
+  <si>
+    <t>Narrator</t>
+  </si>
+  <si>
+    <t>Title</t>
   </si>
 </sst>
 </file>
@@ -1071,7 +1083,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1214,8 +1226,39 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="5:5">
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="b">
+        <v>0</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="8:10">
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10">
       <c r="E10" s="4"/>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10">
+        <v>2</v>
+      </c>
     </row>
     <row r="11" spans="5:5">
       <c r="E11" s="4"/>
